--- a/biology/Botanique/Pierre_Blondin/Pierre_Blondin.xlsx
+++ b/biology/Botanique/Pierre_Blondin/Pierre_Blondin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Blondin est un médecin et botaniste français, membre de l'Académie royale des sciences, né dans le Vimeu le 18 décembre 1682, et mort à Paris le 15 avril 1713 (à 30 ans).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses humanités dans la ville d'Eu avant de venir continuer ses études à Paris, en 1700 où il s'établit avec ses deux frères aînées, un était avocat, l'autre docteur en Sorbonne. Il a suivi des cours de philosophie et prend des traités de mathématiques au Collège royal. Il s'est ensuite allé aux Écoles de Médecine, à l'amphithéâtre Saint-Cosme et au Jardin du roi. Il a surtout suivi les cours du Jardin du roi et particulièrement à ceux de Tournefort. Ce dernier l'a distingué parmi ses disciples et l'a plusieurs chargé de le remplacer pour ses cours quand il était indisposé.
 Intéressé par la botanique, il a herborisé dans toute la Picardie, la Normandie et l'Île-de-France. En Picardie il a découvert 120 plantes qui n'étaient pas au Jardin du roi. Sa connaissance de la botanique lui a permis de composer des médicaments avec des plantes.
